--- a/(敬老)テスト計画票.xlsx
+++ b/(敬老)テスト計画票.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\③敬老祝いアンケート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DAD6B4-2F17-4464-8BD9-C53ABC568598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C616289-900F-4875-A752-CD9DE003EA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -78,13 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手順</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
@@ -113,22 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敬老祝い事業用アンケート集計ツール　テスト計画書</t>
-    <rPh sb="0" eb="3">
-      <t>ケイロウイワ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジギョウヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -153,16 +130,6 @@
     <t>ワークブックが開く</t>
     <rPh sb="7" eb="8">
       <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>集計ツールを再表示できること</t>
-    <rPh sb="0" eb="2">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サイヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -286,22 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>非表示されていた集計シートが再表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>サイヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アンケート回答</t>
     <rPh sb="5" eb="7">
       <t>カイトウ</t>
@@ -396,6 +347,147 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望日：9月15日(月)
+希望時間：9:00</t>
+    <rPh sb="0" eb="3">
+      <t>キボウビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>キボウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーフォームで同じ希望日、同じ希望時間で回答をする</t>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キボウビ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複値の強調</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬老祝い事業用アンケート集計アプリ　テスト計画書</t>
+    <rPh sb="0" eb="3">
+      <t>ケイロウイワ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジギョウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計シート・日別シートを再表示できること</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチベツ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非表示されていた集計シート・日別シートが再表示される</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニチベツ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同希望日で同希望時間の場合日別シートでセルが塗りつぶされること</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>キボウビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニチベツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どちらのセルも水色(9:00)に塗りつぶされる</t>
+    <rPh sb="7" eb="9">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヌ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -484,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,14 +607,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,10 +954,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA8B919-26CA-44AB-9E06-FD6E04B2CBDC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -877,12 +972,12 @@
     <col min="8" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -893,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -904,176 +999,186 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>20241218</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3"/>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10"/>
+    <row r="6" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
+    <row r="7" spans="1:8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I5:I9"/>
+  <mergeCells count="8">
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(敬老)テスト計画票.xlsx
+++ b/(敬老)テスト計画票.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\③敬老祝いアンケート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C616289-900F-4875-A752-CD9DE003EA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3837F30-BF9A-487F-8CDE-33275BEA464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,17 +607,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,31 +953,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA8B919-26CA-44AB-9E06-FD6E04B2CBDC}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="5.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1000,11 +1002,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1023,11 +1025,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1044,66 +1046,66 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="13">
+    <row r="5" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+    <row r="6" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+    <row r="7" spans="1:8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>4</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>5</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="4">
         <v>6</v>
@@ -1171,17 +1173,17 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="C5:C9"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="C5:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>